--- a/04-Testing/Results/Filter CFD May1_2020_Prelim_results_by_CM.xlsx
+++ b/04-Testing/Results/Filter CFD May1_2020_Prelim_results_by_CM.xlsx
@@ -1,22 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wckng/Reusable-N95-Project/04-Testing/Results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D84C537-DBB8-A849-B5F8-8A1A2A0FA721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="8475" windowHeight="7425" activeTab="1"/>
+    <workbookView xWindow="2520" yWindow="460" windowWidth="21880" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Materials" sheetId="3" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" r:id="rId2"/>
+    <sheet name="Graph" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{7824BE5C-49EF-AE4B-8EEB-AE259FBB9B59}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 - Yes, woven
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0 - No, not woven
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
   <si>
     <t>Preliminary flow testing</t>
   </si>
@@ -216,12 +284,204 @@
   <si>
     <t>Blank</t>
   </si>
+  <si>
+    <t>Material Mastersheet</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Lakehead</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Thickness</t>
+  </si>
+  <si>
+    <t>Appearance</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Plies in Pack</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Quang</t>
+  </si>
+  <si>
+    <t>UofT</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>UHN</t>
+  </si>
+  <si>
+    <t>Bootie</t>
+  </si>
+  <si>
+    <t>MERV-14</t>
+  </si>
+  <si>
+    <t>H&amp;V</t>
+  </si>
+  <si>
+    <t>2mm</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>Woven</t>
+  </si>
+  <si>
+    <t>Queen's</t>
+  </si>
+  <si>
+    <t>bio-soluble fibres</t>
+  </si>
+  <si>
+    <t>MERV-14 "Billings"</t>
+  </si>
+  <si>
+    <t>McMaster</t>
+  </si>
+  <si>
+    <t>H100</t>
+  </si>
+  <si>
+    <t>H300</t>
+  </si>
+  <si>
+    <t>H400</t>
+  </si>
+  <si>
+    <t>H600</t>
+  </si>
+  <si>
+    <t>Halyard</t>
+  </si>
+  <si>
+    <t>TBC</t>
+  </si>
+  <si>
+    <t>&lt;1mm</t>
+  </si>
+  <si>
+    <t>Hepa Paper</t>
+  </si>
+  <si>
+    <t>MERV-8</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Q-1</t>
+  </si>
+  <si>
+    <t>Q-2</t>
+  </si>
+  <si>
+    <t>Q-3</t>
+  </si>
+  <si>
+    <t>Q-4</t>
+  </si>
+  <si>
+    <t>Q-5</t>
+  </si>
+  <si>
+    <t>Web-Link</t>
+  </si>
+  <si>
+    <t>surgimask</t>
+  </si>
+  <si>
+    <t>Medi-Select</t>
+  </si>
+  <si>
+    <t>www.medi-select.ca</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Shoe-Cover Ref CCTS-R</t>
+  </si>
+  <si>
+    <t>MERV-15</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>VACURAMA</t>
+  </si>
+  <si>
+    <t>2 woven &amp; 2 hepa filters</t>
+  </si>
+  <si>
+    <t>2 woven &amp; 1 hepa Filter</t>
+  </si>
+  <si>
+    <t>2 woven &amp; 1 hepa filter</t>
+  </si>
+  <si>
+    <t>vacurama.com</t>
+  </si>
+  <si>
+    <t>Small vacuum bag</t>
+  </si>
+  <si>
+    <t>vacuum bag</t>
+  </si>
+  <si>
+    <t>KEEPW6</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>fibre-glass</t>
+  </si>
+  <si>
+    <t>1mm</t>
+  </si>
+  <si>
+    <t>clear-white</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +522,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -280,15 +561,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -297,14 +581,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -329,7 +616,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$20</c:f>
+              <c:f>Results!$B$7:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -380,7 +667,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$7:$K$20</c:f>
+              <c:f>Results!$K$7:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -430,6 +717,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA6F-F847-97BE-2E4E4365FEA5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -439,7 +731,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$20</c:f>
+              <c:f>Results!$B$7:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -490,7 +782,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$7:$M$20</c:f>
+              <c:f>Results!$M$7:$M$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -540,6 +832,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FA6F-F847-97BE-2E4E4365FEA5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -549,7 +846,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$20</c:f>
+              <c:f>Results!$B$7:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -600,7 +897,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$7:$P$20</c:f>
+              <c:f>Results!$P$7:$P$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -650,6 +947,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FA6F-F847-97BE-2E4E4365FEA5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -659,7 +961,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$20</c:f>
+              <c:f>Results!$B$7:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -710,7 +1012,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$S$7:$S$17</c:f>
+              <c:f>Results!$S$7:$S$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -751,6 +1053,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FA6F-F847-97BE-2E4E4365FEA5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -760,7 +1067,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$20</c:f>
+              <c:f>Results!$B$7:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -811,7 +1118,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$7:$V$17</c:f>
+              <c:f>Results!$V$7:$V$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -852,6 +1159,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FA6F-F847-97BE-2E4E4365FEA5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -861,7 +1173,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$20</c:f>
+              <c:f>Results!$B$7:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -912,7 +1224,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$7:$Y$17</c:f>
+              <c:f>Results!$Y$7:$Y$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -953,6 +1265,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FA6F-F847-97BE-2E4E4365FEA5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -962,7 +1279,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$20</c:f>
+              <c:f>Results!$B$7:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1013,7 +1330,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AB$7:$AB$18</c:f>
+              <c:f>Results!$AB$7:$AB$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1057,6 +1374,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FA6F-F847-97BE-2E4E4365FEA5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -1066,7 +1388,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$20</c:f>
+              <c:f>Results!$B$7:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1117,7 +1439,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AE$7:$AE$10</c:f>
+              <c:f>Results!$AE$7:$AE$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1137,6 +1459,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-FA6F-F847-97BE-2E4E4365FEA5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -1146,7 +1473,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$20</c:f>
+              <c:f>Results!$B$7:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1197,7 +1524,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AH$7:$AH$20</c:f>
+              <c:f>Results!$AH$7:$AH$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1247,6 +1574,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-FA6F-F847-97BE-2E4E4365FEA5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -1256,7 +1588,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$20</c:f>
+              <c:f>Results!$B$7:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1307,7 +1639,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AK$6:$AK$20</c:f>
+              <c:f>Results!$AK$6:$AK$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1357,6 +1689,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-FA6F-F847-97BE-2E4E4365FEA5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -1366,7 +1703,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$20</c:f>
+              <c:f>Results!$B$7:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1417,7 +1754,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AN$7:$AN$20</c:f>
+              <c:f>Results!$AN$7:$AN$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1437,6 +1774,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-FA6F-F847-97BE-2E4E4365FEA5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -1446,7 +1788,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$20</c:f>
+              <c:f>Results!$B$7:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1497,7 +1839,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AQ$7:$AQ$20</c:f>
+              <c:f>Results!$AQ$7:$AQ$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1547,6 +1889,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-FA6F-F847-97BE-2E4E4365FEA5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1593,7 +1940,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1609,9 +1955,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1646,7 +1992,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$20</c:f>
+              <c:f>Results!$B$7:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1697,7 +2043,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$7:$K$20</c:f>
+              <c:f>Results!$K$7:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1747,6 +2093,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8114-1247-9DB5-3A1B2CAA97C2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1756,7 +2107,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$20</c:f>
+              <c:f>Results!$B$7:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1807,7 +2158,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$7:$M$20</c:f>
+              <c:f>Results!$M$7:$M$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1857,6 +2208,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8114-1247-9DB5-3A1B2CAA97C2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1866,7 +2222,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$20</c:f>
+              <c:f>Results!$B$7:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1917,7 +2273,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$7:$P$20</c:f>
+              <c:f>Results!$P$7:$P$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1967,6 +2323,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8114-1247-9DB5-3A1B2CAA97C2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1976,7 +2337,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$20</c:f>
+              <c:f>Results!$B$7:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2027,7 +2388,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$S$7:$S$17</c:f>
+              <c:f>Results!$S$7:$S$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2068,6 +2429,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8114-1247-9DB5-3A1B2CAA97C2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2077,7 +2443,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$20</c:f>
+              <c:f>Results!$B$7:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2128,7 +2494,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$7:$V$17</c:f>
+              <c:f>Results!$V$7:$V$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2169,6 +2535,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8114-1247-9DB5-3A1B2CAA97C2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2178,7 +2549,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$20</c:f>
+              <c:f>Results!$B$7:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2229,7 +2600,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$7:$Y$17</c:f>
+              <c:f>Results!$Y$7:$Y$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2270,6 +2641,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8114-1247-9DB5-3A1B2CAA97C2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -2279,7 +2655,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$20</c:f>
+              <c:f>Results!$B$7:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2330,7 +2706,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AB$7:$AB$18</c:f>
+              <c:f>Results!$AB$7:$AB$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2374,6 +2750,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8114-1247-9DB5-3A1B2CAA97C2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -2383,7 +2764,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$20</c:f>
+              <c:f>Results!$B$7:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2434,7 +2815,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AE$7:$AE$10</c:f>
+              <c:f>Results!$AE$7:$AE$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2454,6 +2835,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8114-1247-9DB5-3A1B2CAA97C2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -2463,7 +2849,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$20</c:f>
+              <c:f>Results!$B$7:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2514,7 +2900,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AH$7:$AH$20</c:f>
+              <c:f>Results!$AH$7:$AH$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2564,6 +2950,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8114-1247-9DB5-3A1B2CAA97C2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -2573,7 +2964,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$20</c:f>
+              <c:f>Results!$B$7:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2624,7 +3015,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AK$6:$AK$20</c:f>
+              <c:f>Results!$AK$6:$AK$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2674,6 +3065,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-8114-1247-9DB5-3A1B2CAA97C2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -2683,7 +3079,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$20</c:f>
+              <c:f>Results!$B$7:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2734,7 +3130,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AN$7:$AN$20</c:f>
+              <c:f>Results!$AN$7:$AN$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2754,6 +3150,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-8114-1247-9DB5-3A1B2CAA97C2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -2763,7 +3164,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$20</c:f>
+              <c:f>Results!$B$7:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2814,7 +3215,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AQ$7:$AQ$20</c:f>
+              <c:f>Results!$AQ$7:$AQ$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2864,6 +3265,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-8114-1247-9DB5-3A1B2CAA97C2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2907,7 +3313,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
@@ -2952,7 +3357,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3017,7 +3421,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3052,7 +3462,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3115,7 +3531,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3148,9 +3564,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3183,6 +3616,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3358,27 +3808,446 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="6.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L4" r:id="rId1" xr:uid="{A6144E9B-A3DC-B04B-BE77-5E90D51701CF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ23"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS5" sqref="AS5"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.7109375" customWidth="1"/>
+    <col min="3" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43952</v>
       </c>
@@ -3389,11 +4258,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -3407,7 +4276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -3502,7 +4371,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:43" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3541,7 +4410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -3659,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3777,7 +4646,7 @@
         <v>2.4999999999999994E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>A8+0.5</f>
         <v>1.5</v>
@@ -3896,7 +4765,7 @@
         <v>7.5000000000000011E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" ref="A10:A20" si="17">A9+0.5</f>
         <v>2</v>
@@ -4015,7 +4884,7 @@
         <v>0.22499999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="17"/>
         <v>2.5</v>
@@ -4120,7 +4989,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="17"/>
         <v>3</v>
@@ -4225,7 +5094,7 @@
         <v>0.47500000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="17"/>
         <v>3.5</v>
@@ -4330,7 +5199,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="17"/>
         <v>4</v>
@@ -4435,7 +5304,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="17"/>
         <v>4.5</v>
@@ -4540,7 +5409,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16">
         <f>A15+0.5</f>
         <v>5</v>
@@ -4645,7 +5514,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="17"/>
         <v>5.5</v>
@@ -4750,7 +5619,7 @@
         <v>1.9749999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="17"/>
         <v>6</v>
@@ -4837,7 +5706,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19">
         <f>A18+0.5</f>
         <v>6.5</v>
@@ -4917,7 +5786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="17"/>
         <v>7</v>
@@ -4997,7 +5866,7 @@
         <v>3.5249999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
@@ -5010,7 +5879,7 @@
         <v>8.9285714285714288E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B22">
         <f>3/1000</f>
         <v>3.0000000000000001E-3</v>
@@ -5019,7 +5888,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B23">
         <f>PI()*(B22)^2</f>
         <v>2.8274333882308137E-5</v>
@@ -5035,29 +5904,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>